--- a/data/sample_output.xlsx
+++ b/data/sample_output.xlsx
@@ -608,7 +608,7 @@
   <dimension ref="A1:AJ15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
